--- a/stock_predictor_ai/data/company_sentiment_ready/CCL_sentiment.xlsx
+++ b/stock_predictor_ai/data/company_sentiment_ready/CCL_sentiment.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B9549"/>
+  <dimension ref="A1:B9610"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76833,6 +76833,494 @@
         <v>0</v>
       </c>
     </row>
+    <row r="9550">
+      <c r="A9550" s="2" t="n">
+        <v>45826</v>
+      </c>
+      <c r="B9550" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9551">
+      <c r="A9551" s="2" t="n">
+        <v>45828</v>
+      </c>
+      <c r="B9551" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9552">
+      <c r="A9552" s="2" t="n">
+        <v>45831</v>
+      </c>
+      <c r="B9552" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9553">
+      <c r="A9553" s="2" t="n">
+        <v>45832</v>
+      </c>
+      <c r="B9553" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9554">
+      <c r="A9554" s="2" t="n">
+        <v>45833</v>
+      </c>
+      <c r="B9554" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9555">
+      <c r="A9555" s="2" t="n">
+        <v>45834</v>
+      </c>
+      <c r="B9555" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9556">
+      <c r="A9556" s="2" t="n">
+        <v>45835</v>
+      </c>
+      <c r="B9556" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9557">
+      <c r="A9557" s="2" t="n">
+        <v>45838</v>
+      </c>
+      <c r="B9557" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9558">
+      <c r="A9558" s="2" t="n">
+        <v>45839</v>
+      </c>
+      <c r="B9558" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9559">
+      <c r="A9559" s="2" t="n">
+        <v>45840</v>
+      </c>
+      <c r="B9559" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9560">
+      <c r="A9560" s="2" t="n">
+        <v>45841</v>
+      </c>
+      <c r="B9560" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9561">
+      <c r="A9561" s="2" t="n">
+        <v>45845</v>
+      </c>
+      <c r="B9561" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9562">
+      <c r="A9562" s="2" t="n">
+        <v>45846</v>
+      </c>
+      <c r="B9562" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9563">
+      <c r="A9563" s="2" t="n">
+        <v>45847</v>
+      </c>
+      <c r="B9563" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9564">
+      <c r="A9564" s="2" t="n">
+        <v>45848</v>
+      </c>
+      <c r="B9564" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9565">
+      <c r="A9565" s="2" t="n">
+        <v>45849</v>
+      </c>
+      <c r="B9565" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9566">
+      <c r="A9566" s="2" t="n">
+        <v>45852</v>
+      </c>
+      <c r="B9566" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9567">
+      <c r="A9567" s="2" t="n">
+        <v>45853</v>
+      </c>
+      <c r="B9567" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9568">
+      <c r="A9568" s="2" t="n">
+        <v>45854</v>
+      </c>
+      <c r="B9568" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9569">
+      <c r="A9569" s="2" t="n">
+        <v>45855</v>
+      </c>
+      <c r="B9569" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9570">
+      <c r="A9570" s="2" t="n">
+        <v>45856</v>
+      </c>
+      <c r="B9570" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9571">
+      <c r="A9571" s="2" t="n">
+        <v>45859</v>
+      </c>
+      <c r="B9571" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9572">
+      <c r="A9572" s="2" t="n">
+        <v>45860</v>
+      </c>
+      <c r="B9572" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9573">
+      <c r="A9573" s="2" t="n">
+        <v>45861</v>
+      </c>
+      <c r="B9573" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9574">
+      <c r="A9574" s="2" t="n">
+        <v>45862</v>
+      </c>
+      <c r="B9574" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9575">
+      <c r="A9575" s="2" t="n">
+        <v>45863</v>
+      </c>
+      <c r="B9575" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9576">
+      <c r="A9576" s="2" t="n">
+        <v>45866</v>
+      </c>
+      <c r="B9576" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9577">
+      <c r="A9577" s="2" t="n">
+        <v>45867</v>
+      </c>
+      <c r="B9577" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9578">
+      <c r="A9578" s="2" t="n">
+        <v>45868</v>
+      </c>
+      <c r="B9578" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9579">
+      <c r="A9579" s="2" t="n">
+        <v>45869</v>
+      </c>
+      <c r="B9579" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9580">
+      <c r="A9580" s="2" t="n">
+        <v>45870</v>
+      </c>
+      <c r="B9580" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9581">
+      <c r="A9581" s="2" t="n">
+        <v>45873</v>
+      </c>
+      <c r="B9581" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9582">
+      <c r="A9582" s="2" t="n">
+        <v>45874</v>
+      </c>
+      <c r="B9582" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9583">
+      <c r="A9583" s="2" t="n">
+        <v>45875</v>
+      </c>
+      <c r="B9583" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9584">
+      <c r="A9584" s="2" t="n">
+        <v>45876</v>
+      </c>
+      <c r="B9584" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9585">
+      <c r="A9585" s="2" t="n">
+        <v>45877</v>
+      </c>
+      <c r="B9585" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9586">
+      <c r="A9586" s="2" t="n">
+        <v>45880</v>
+      </c>
+      <c r="B9586" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9587">
+      <c r="A9587" s="2" t="n">
+        <v>45881</v>
+      </c>
+      <c r="B9587" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9588">
+      <c r="A9588" s="2" t="n">
+        <v>45882</v>
+      </c>
+      <c r="B9588" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9589">
+      <c r="A9589" s="2" t="n">
+        <v>45883</v>
+      </c>
+      <c r="B9589" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9590">
+      <c r="A9590" s="2" t="n">
+        <v>45884</v>
+      </c>
+      <c r="B9590" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9591">
+      <c r="A9591" s="2" t="n">
+        <v>45887</v>
+      </c>
+      <c r="B9591" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9592">
+      <c r="A9592" s="2" t="n">
+        <v>45888</v>
+      </c>
+      <c r="B9592" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9593">
+      <c r="A9593" s="2" t="n">
+        <v>45889</v>
+      </c>
+      <c r="B9593" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9594">
+      <c r="A9594" s="2" t="n">
+        <v>45890</v>
+      </c>
+      <c r="B9594" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9595">
+      <c r="A9595" s="2" t="n">
+        <v>45891</v>
+      </c>
+      <c r="B9595" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9596">
+      <c r="A9596" s="2" t="n">
+        <v>45894</v>
+      </c>
+      <c r="B9596" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9597">
+      <c r="A9597" s="2" t="n">
+        <v>45895</v>
+      </c>
+      <c r="B9597" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9598">
+      <c r="A9598" s="2" t="n">
+        <v>45896</v>
+      </c>
+      <c r="B9598" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9599">
+      <c r="A9599" s="2" t="n">
+        <v>45897</v>
+      </c>
+      <c r="B9599" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9600">
+      <c r="A9600" s="2" t="n">
+        <v>45898</v>
+      </c>
+      <c r="B9600" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9601">
+      <c r="A9601" s="2" t="n">
+        <v>45902</v>
+      </c>
+      <c r="B9601" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9602">
+      <c r="A9602" s="2" t="n">
+        <v>45903</v>
+      </c>
+      <c r="B9602" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9603">
+      <c r="A9603" s="2" t="n">
+        <v>45904</v>
+      </c>
+      <c r="B9603" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9604">
+      <c r="A9604" s="2" t="n">
+        <v>45905</v>
+      </c>
+      <c r="B9604" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9605">
+      <c r="A9605" s="2" t="n">
+        <v>45908</v>
+      </c>
+      <c r="B9605" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9606">
+      <c r="A9606" s="2" t="n">
+        <v>45909</v>
+      </c>
+      <c r="B9606" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9607">
+      <c r="A9607" s="2" t="n">
+        <v>45910</v>
+      </c>
+      <c r="B9607" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9608">
+      <c r="A9608" s="2" t="n">
+        <v>45911</v>
+      </c>
+      <c r="B9608" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9609">
+      <c r="A9609" s="2" t="n">
+        <v>45912</v>
+      </c>
+      <c r="B9609" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9610">
+      <c r="A9610" s="2" t="n">
+        <v>45915</v>
+      </c>
+      <c r="B9610" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
